--- a/DATA BIG_PROJECT.xlsx
+++ b/DATA BIG_PROJECT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\KP PETROKIMIA\BIG PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BigProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61662E7-38B3-48BE-A2E3-23D8361CE3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F34550E-6722-4F6A-AD6A-AA2CBE2B35F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BAWANG MERAH" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="60">
   <si>
     <t>Lokasi</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>Produktivitas</t>
+  </si>
+  <si>
+    <t>Tahun</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,59 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="128">
+  <dxfs count="130">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5115,152 +5170,162 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DE5A63-D3D6-4576-9732-8D2ADE51BE5C}" name="Bawang_Merah" displayName="Bawang_Merah" ref="A1:S35" totalsRowShown="0" headerRowDxfId="127" dataDxfId="125" headerRowBorderDxfId="126" tableBorderDxfId="124" totalsRowBorderDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DE5A63-D3D6-4576-9732-8D2ADE51BE5C}" name="Bawang_Merah" displayName="Bawang_Merah" ref="A1:S35" totalsRowShown="0" headerRowDxfId="129" dataDxfId="127" headerRowBorderDxfId="128" tableBorderDxfId="126" totalsRowBorderDxfId="125">
   <autoFilter ref="A1:S35" xr:uid="{11DE5A63-D3D6-4576-9732-8D2ADE51BE5C}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{B3F24A32-5409-4E03-8D2E-D390AF590819}" name="Lokasi" dataDxfId="122"/>
-    <tableColumn id="2" xr3:uid="{74D28A38-3DF2-4600-BB3E-8B465D3F5326}" name="X1" dataDxfId="121"/>
-    <tableColumn id="3" xr3:uid="{DE17C9E8-599F-4E76-B86A-6D1BF119ED9B}" name="X2" dataDxfId="120"/>
-    <tableColumn id="4" xr3:uid="{5AF5340D-C1BA-49E5-8C8D-B431C152130D}" name="X3" dataDxfId="119"/>
-    <tableColumn id="5" xr3:uid="{D6DFCE98-AB22-43C2-B10D-FDC5EE66A38D}" name="X4" dataDxfId="118"/>
-    <tableColumn id="6" xr3:uid="{D0C673FC-7541-49B5-B7E3-DB86EFBFEBBD}" name="X5" dataDxfId="117"/>
-    <tableColumn id="7" xr3:uid="{CE886B5B-2440-4476-AE86-DBB8843CDC9D}" name="X6" dataDxfId="116"/>
-    <tableColumn id="8" xr3:uid="{06E6657E-E1C4-4CAB-9802-86478C7E9E8D}" name="Y1" dataDxfId="115"/>
-    <tableColumn id="9" xr3:uid="{C64FA1FB-A863-452B-B0C4-0C89C749CF88}" name="Y2" dataDxfId="114"/>
-    <tableColumn id="10" xr3:uid="{1337A59C-8703-4004-B6E2-0EBB667CD6FF}" name="Y3" dataDxfId="113"/>
-    <tableColumn id="11" xr3:uid="{86EC544A-9989-4F0F-AFA1-BAA9BB6D7545}" name="Y4" dataDxfId="112"/>
-    <tableColumn id="12" xr3:uid="{34519299-7A42-462D-AC78-7CD718EC61DC}" name="Y5" dataDxfId="111"/>
-    <tableColumn id="13" xr3:uid="{49EE9EE8-D62D-4490-82AE-E130D82C772E}" name="Y6" dataDxfId="110"/>
-    <tableColumn id="14" xr3:uid="{F7A14BAC-DE6C-40AF-9D84-375F2322DA4B}" name="Z1" dataDxfId="109"/>
-    <tableColumn id="15" xr3:uid="{583F20B4-4890-411F-BE0D-D5099E0828B5}" name="Z2" dataDxfId="108"/>
-    <tableColumn id="16" xr3:uid="{EB5032BD-6CE7-47A3-948B-9AA012F59790}" name="Z3" dataDxfId="107"/>
-    <tableColumn id="17" xr3:uid="{816500AA-4811-4143-B7B0-0C08C9D9A4E8}" name="Z4" dataDxfId="106"/>
-    <tableColumn id="18" xr3:uid="{49B95384-814C-45F5-99E1-6C7361FA06B1}" name="Z5" dataDxfId="105"/>
-    <tableColumn id="19" xr3:uid="{9D368DB6-63D8-4ADC-A245-964004F12C44}" name="Z6" dataDxfId="104"/>
+    <tableColumn id="1" xr3:uid="{B3F24A32-5409-4E03-8D2E-D390AF590819}" name="Lokasi" dataDxfId="124"/>
+    <tableColumn id="2" xr3:uid="{74D28A38-3DF2-4600-BB3E-8B465D3F5326}" name="X1" dataDxfId="123"/>
+    <tableColumn id="3" xr3:uid="{DE17C9E8-599F-4E76-B86A-6D1BF119ED9B}" name="X2" dataDxfId="122"/>
+    <tableColumn id="4" xr3:uid="{5AF5340D-C1BA-49E5-8C8D-B431C152130D}" name="X3" dataDxfId="121"/>
+    <tableColumn id="5" xr3:uid="{D6DFCE98-AB22-43C2-B10D-FDC5EE66A38D}" name="X4" dataDxfId="120"/>
+    <tableColumn id="6" xr3:uid="{D0C673FC-7541-49B5-B7E3-DB86EFBFEBBD}" name="X5" dataDxfId="119"/>
+    <tableColumn id="7" xr3:uid="{CE886B5B-2440-4476-AE86-DBB8843CDC9D}" name="X6" dataDxfId="118"/>
+    <tableColumn id="8" xr3:uid="{06E6657E-E1C4-4CAB-9802-86478C7E9E8D}" name="Y1" dataDxfId="117"/>
+    <tableColumn id="9" xr3:uid="{C64FA1FB-A863-452B-B0C4-0C89C749CF88}" name="Y2" dataDxfId="116"/>
+    <tableColumn id="10" xr3:uid="{1337A59C-8703-4004-B6E2-0EBB667CD6FF}" name="Y3" dataDxfId="115"/>
+    <tableColumn id="11" xr3:uid="{86EC544A-9989-4F0F-AFA1-BAA9BB6D7545}" name="Y4" dataDxfId="114"/>
+    <tableColumn id="12" xr3:uid="{34519299-7A42-462D-AC78-7CD718EC61DC}" name="Y5" dataDxfId="113"/>
+    <tableColumn id="13" xr3:uid="{49EE9EE8-D62D-4490-82AE-E130D82C772E}" name="Y6" dataDxfId="112"/>
+    <tableColumn id="14" xr3:uid="{F7A14BAC-DE6C-40AF-9D84-375F2322DA4B}" name="Z1" dataDxfId="111"/>
+    <tableColumn id="15" xr3:uid="{583F20B4-4890-411F-BE0D-D5099E0828B5}" name="Z2" dataDxfId="110"/>
+    <tableColumn id="16" xr3:uid="{EB5032BD-6CE7-47A3-948B-9AA012F59790}" name="Z3" dataDxfId="109"/>
+    <tableColumn id="17" xr3:uid="{816500AA-4811-4143-B7B0-0C08C9D9A4E8}" name="Z4" dataDxfId="108"/>
+    <tableColumn id="18" xr3:uid="{49B95384-814C-45F5-99E1-6C7361FA06B1}" name="Z5" dataDxfId="107"/>
+    <tableColumn id="19" xr3:uid="{9D368DB6-63D8-4ADC-A245-964004F12C44}" name="Z6" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{74A2164F-37E1-493A-B2CA-E6DDA60097D9}" name="Cabai" displayName="Cabai" ref="A1:S35" totalsRowShown="0" headerRowDxfId="103" dataDxfId="101" headerRowBorderDxfId="102" tableBorderDxfId="100" totalsRowBorderDxfId="99">
-  <autoFilter ref="A1:S35" xr:uid="{74A2164F-37E1-493A-B2CA-E6DDA60097D9}"/>
-  <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{610C856B-0195-4AFB-BB80-31478E4EA395}" name="Lokasi" dataDxfId="98"/>
-    <tableColumn id="2" xr3:uid="{EE86A0E3-4F4C-4B5F-9F5E-750F18580C36}" name="X1" dataDxfId="97"/>
-    <tableColumn id="3" xr3:uid="{8DC1F2F0-83B8-4B69-B6C1-47B3B8B47860}" name="X2" dataDxfId="96"/>
-    <tableColumn id="4" xr3:uid="{A8F73E7E-B5C2-4E1D-95E2-8E0EE389457B}" name="X3" dataDxfId="95"/>
-    <tableColumn id="5" xr3:uid="{6B17F201-40FE-4624-95F6-2FD3F23F9C87}" name="X4" dataDxfId="94"/>
-    <tableColumn id="6" xr3:uid="{AF01D447-1D2C-4762-B716-16600B39387D}" name="X5" dataDxfId="93"/>
-    <tableColumn id="7" xr3:uid="{6E4D6376-E15C-4366-8043-1ED787A08643}" name="X6" dataDxfId="92"/>
-    <tableColumn id="8" xr3:uid="{927EA8C7-A0BC-4129-B44D-673EBC9212E3}" name="Y1" dataDxfId="91"/>
-    <tableColumn id="9" xr3:uid="{D99EBBA3-0790-4A98-9DE9-2E9FF350FB2F}" name="Y2" dataDxfId="90"/>
-    <tableColumn id="10" xr3:uid="{BB0C1B7E-FB53-4B00-884B-A45132AE9707}" name="Y3" dataDxfId="89"/>
-    <tableColumn id="11" xr3:uid="{FC4EFD7F-4612-4AEC-A04D-6DC5D8A88F60}" name="Y4" dataDxfId="88"/>
-    <tableColumn id="12" xr3:uid="{23584CBF-2A78-4D5C-9B4E-4CE21E71F167}" name="Y5" dataDxfId="87"/>
-    <tableColumn id="13" xr3:uid="{20F8A577-03C2-45AF-8047-CAAD7CF2994E}" name="Y6" dataDxfId="86"/>
-    <tableColumn id="14" xr3:uid="{B4B3B6EF-49A8-4B1E-AD87-D88722460643}" name="Z1" dataDxfId="85"/>
-    <tableColumn id="15" xr3:uid="{836E944A-AC33-4DBD-BCDB-376DF82EF17F}" name="Z2" dataDxfId="84"/>
-    <tableColumn id="16" xr3:uid="{CC4B8A49-5A8C-450E-BDDA-E3553EAEB791}" name="Z3" dataDxfId="83"/>
-    <tableColumn id="17" xr3:uid="{4DEA008A-DC23-4D57-9B4D-223BA4D0ABF9}" name="Z4" dataDxfId="82"/>
-    <tableColumn id="18" xr3:uid="{EAAB125F-0FD5-4C5F-A8FE-B3635563F061}" name="Z5" dataDxfId="81"/>
-    <tableColumn id="19" xr3:uid="{05DBFA1B-4E0D-4BDC-88A6-CE1D5F7A20C8}" name="Z6" dataDxfId="80"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E287B2D5-3EC7-449B-8187-41B3AFA26002}" name="Tahun" displayName="Tahun" ref="E1:E7" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="E1:E7" xr:uid="{E287B2D5-3EC7-449B-8187-41B3AFA26002}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{BB247F59-FC6F-4739-9A2D-D8BEA7E0F215}" name="Tahun" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9EA2F684-4DEC-4463-9B2D-5F08CEB6746D}" name="Jagung" displayName="Jagung" ref="A1:J35" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76" totalsRowBorderDxfId="75">
-  <autoFilter ref="A1:J35" xr:uid="{9EA2F684-4DEC-4463-9B2D-5F08CEB6746D}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{58E0F803-7FAA-4649-9BAB-3F7D6663ED01}" name="Lokasi" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{2C7AB47E-92D3-4FB5-B3FB-62EA92F58F19}" name="X1" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{85728884-A0AF-42B9-9DC6-BAB4265411A4}" name="X2" dataDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{493A37B5-0EB7-4D66-A217-8A1BBF240961}" name="X3" dataDxfId="71"/>
-    <tableColumn id="5" xr3:uid="{3D1B9885-623E-47D8-957B-ABBD27D14216}" name="Y1" dataDxfId="70"/>
-    <tableColumn id="6" xr3:uid="{47E946A6-667C-4181-9535-8AAEB9980CFE}" name="Y2" dataDxfId="69"/>
-    <tableColumn id="7" xr3:uid="{779535A8-03D1-4C0D-8C56-70BFC30EA670}" name="Y3" dataDxfId="68"/>
-    <tableColumn id="8" xr3:uid="{468BE7C3-18EF-4608-AFAD-AE76682DB972}" name="Z1" dataDxfId="67"/>
-    <tableColumn id="9" xr3:uid="{68EEC588-4FB7-4BC6-B464-7DAAA5B8BDC8}" name="Z2" dataDxfId="66"/>
-    <tableColumn id="10" xr3:uid="{AEB84123-C8ED-4A4F-851E-2906FBFA9289}" name="Z3" dataDxfId="65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{74A2164F-37E1-493A-B2CA-E6DDA60097D9}" name="Cabai" displayName="Cabai" ref="A1:S35" totalsRowShown="0" headerRowDxfId="105" dataDxfId="103" headerRowBorderDxfId="104" tableBorderDxfId="102" totalsRowBorderDxfId="101">
+  <autoFilter ref="A1:S35" xr:uid="{74A2164F-37E1-493A-B2CA-E6DDA60097D9}"/>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{610C856B-0195-4AFB-BB80-31478E4EA395}" name="Lokasi" dataDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{EE86A0E3-4F4C-4B5F-9F5E-750F18580C36}" name="X1" dataDxfId="99"/>
+    <tableColumn id="3" xr3:uid="{8DC1F2F0-83B8-4B69-B6C1-47B3B8B47860}" name="X2" dataDxfId="98"/>
+    <tableColumn id="4" xr3:uid="{A8F73E7E-B5C2-4E1D-95E2-8E0EE389457B}" name="X3" dataDxfId="97"/>
+    <tableColumn id="5" xr3:uid="{6B17F201-40FE-4624-95F6-2FD3F23F9C87}" name="X4" dataDxfId="96"/>
+    <tableColumn id="6" xr3:uid="{AF01D447-1D2C-4762-B716-16600B39387D}" name="X5" dataDxfId="95"/>
+    <tableColumn id="7" xr3:uid="{6E4D6376-E15C-4366-8043-1ED787A08643}" name="X6" dataDxfId="94"/>
+    <tableColumn id="8" xr3:uid="{927EA8C7-A0BC-4129-B44D-673EBC9212E3}" name="Y1" dataDxfId="93"/>
+    <tableColumn id="9" xr3:uid="{D99EBBA3-0790-4A98-9DE9-2E9FF350FB2F}" name="Y2" dataDxfId="92"/>
+    <tableColumn id="10" xr3:uid="{BB0C1B7E-FB53-4B00-884B-A45132AE9707}" name="Y3" dataDxfId="91"/>
+    <tableColumn id="11" xr3:uid="{FC4EFD7F-4612-4AEC-A04D-6DC5D8A88F60}" name="Y4" dataDxfId="90"/>
+    <tableColumn id="12" xr3:uid="{23584CBF-2A78-4D5C-9B4E-4CE21E71F167}" name="Y5" dataDxfId="89"/>
+    <tableColumn id="13" xr3:uid="{20F8A577-03C2-45AF-8047-CAAD7CF2994E}" name="Y6" dataDxfId="88"/>
+    <tableColumn id="14" xr3:uid="{B4B3B6EF-49A8-4B1E-AD87-D88722460643}" name="Z1" dataDxfId="87"/>
+    <tableColumn id="15" xr3:uid="{836E944A-AC33-4DBD-BCDB-376DF82EF17F}" name="Z2" dataDxfId="86"/>
+    <tableColumn id="16" xr3:uid="{CC4B8A49-5A8C-450E-BDDA-E3553EAEB791}" name="Z3" dataDxfId="85"/>
+    <tableColumn id="17" xr3:uid="{4DEA008A-DC23-4D57-9B4D-223BA4D0ABF9}" name="Z4" dataDxfId="84"/>
+    <tableColumn id="18" xr3:uid="{EAAB125F-0FD5-4C5F-A8FE-B3635563F061}" name="Z5" dataDxfId="83"/>
+    <tableColumn id="19" xr3:uid="{05DBFA1B-4E0D-4BDC-88A6-CE1D5F7A20C8}" name="Z6" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{58498FFD-56A3-4030-BAC5-A4DF84000E7B}" name="Padi" displayName="Padi" ref="A1:P35" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61" totalsRowBorderDxfId="60">
-  <autoFilter ref="A1:P35" xr:uid="{58498FFD-56A3-4030-BAC5-A4DF84000E7B}"/>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{87E25319-6BDE-491C-89E1-CE64AE015B23}" name="Lokasi" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{349CDAE8-9921-48C4-AA06-D21865547968}" name="X1" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{D7C05B65-F695-4C86-AC9E-13482BB0F612}" name="X2" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{B187E94F-9C4E-409B-AAB6-0F90D6A7FF18}" name="X3" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{2553C06E-60E7-45C2-9455-E7ECFB718760}" name="X4" dataDxfId="55"/>
-    <tableColumn id="6" xr3:uid="{6C518F79-5FF8-4FD8-95C8-0AE4A27DBD16}" name="X5" dataDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{B47D73B5-6CCB-492F-8314-4FCEC6C33B71}" name="X6" dataDxfId="53"/>
-    <tableColumn id="8" xr3:uid="{B21C0025-53AE-4E4A-AC76-1E89AC9DCE2B}" name="Y1" dataDxfId="52"/>
-    <tableColumn id="9" xr3:uid="{9A2F63FB-FF69-4621-85FE-9CD65FEF3139}" name="Y2" dataDxfId="51"/>
-    <tableColumn id="10" xr3:uid="{D3DC8997-DDE9-47C9-8353-D9F3FD5597BC}" name="Y3" dataDxfId="50"/>
-    <tableColumn id="11" xr3:uid="{F88D43E5-ED63-4927-85B4-EFEE690DABEB}" name="Y4" dataDxfId="49"/>
-    <tableColumn id="12" xr3:uid="{D2811859-E1D7-4873-B0BF-07272B4DD900}" name="Y5" dataDxfId="48"/>
-    <tableColumn id="13" xr3:uid="{D27BE502-1DF9-4D21-A61A-5D78E34633EE}" name="Y6" dataDxfId="47"/>
-    <tableColumn id="14" xr3:uid="{02F17D65-5730-4469-8C04-3F1FFEF4881B}" name="Z1" dataDxfId="46"/>
-    <tableColumn id="15" xr3:uid="{342F8DBF-8AA6-46E0-A6A9-E58E73449B9C}" name="Z2" dataDxfId="45"/>
-    <tableColumn id="16" xr3:uid="{BC250D39-FEA5-4117-A540-9FBE0F5EF57B}" name="Z3" dataDxfId="44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9EA2F684-4DEC-4463-9B2D-5F08CEB6746D}" name="Jagung" displayName="Jagung" ref="A1:J35" totalsRowShown="0" headerRowDxfId="81" dataDxfId="79" headerRowBorderDxfId="80" tableBorderDxfId="78" totalsRowBorderDxfId="77">
+  <autoFilter ref="A1:J35" xr:uid="{9EA2F684-4DEC-4463-9B2D-5F08CEB6746D}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{58E0F803-7FAA-4649-9BAB-3F7D6663ED01}" name="Lokasi" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{2C7AB47E-92D3-4FB5-B3FB-62EA92F58F19}" name="X1" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{85728884-A0AF-42B9-9DC6-BAB4265411A4}" name="X2" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{493A37B5-0EB7-4D66-A217-8A1BBF240961}" name="X3" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{3D1B9885-623E-47D8-957B-ABBD27D14216}" name="Y1" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{47E946A6-667C-4181-9535-8AAEB9980CFE}" name="Y2" dataDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{779535A8-03D1-4C0D-8C56-70BFC30EA670}" name="Y3" dataDxfId="70"/>
+    <tableColumn id="8" xr3:uid="{468BE7C3-18EF-4608-AFAD-AE76682DB972}" name="Z1" dataDxfId="69"/>
+    <tableColumn id="9" xr3:uid="{68EEC588-4FB7-4BC6-B464-7DAAA5B8BDC8}" name="Z2" dataDxfId="68"/>
+    <tableColumn id="10" xr3:uid="{AEB84123-C8ED-4A4F-851E-2906FBFA9289}" name="Z3" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1C98EB0A-AE46-417F-A5A7-0A7AB0003563}" name="Tebu" displayName="Tebu" ref="A1:O13" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40" totalsRowBorderDxfId="39">
-  <autoFilter ref="A1:O13" xr:uid="{1C98EB0A-AE46-417F-A5A7-0A7AB0003563}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{3ED1B4F9-2E37-40D8-B4C3-B78352EA7692}" name="Lokasi" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{6740E590-6CA2-4676-8930-EF247218147E}" name="X1" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{54501320-494C-43DD-BACD-779274016EB6}" name="X2" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{00BF2278-34AE-4164-977D-06DBEE6F24A1}" name="X3" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{342B3436-7409-410E-A120-9C733B5E04A2}" name="X4" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{BE1147DC-44D3-4151-B283-D4C1BD7238C3}" name="X5" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{9CC6AE71-F42F-4201-9FFC-DAA02F7222F0}" name="Y1" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{F1012602-F5F5-45FD-8DE0-E5E2FFE2DFDD}" name="Y2" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{A80A15D6-DC71-4DCD-91E3-C62ECB5F46D6}" name="Y3" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{D968C074-0D4E-48C0-98DE-A0239AF383D1}" name="Y4" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{4DBEE1B9-4FCE-447C-86DA-3028A4DFC8BC}" name="Z1" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{AC9199FD-6356-42FD-AE09-5C4C9DE5FDD0}" name="Z2" dataDxfId="27"/>
-    <tableColumn id="13" xr3:uid="{55265D18-39CB-44A0-A477-50DCC847332C}" name="Z3" dataDxfId="26"/>
-    <tableColumn id="14" xr3:uid="{7A316879-D5DC-47D5-82A4-D4453A96FEA0}" name="Z4" dataDxfId="25"/>
-    <tableColumn id="15" xr3:uid="{A9B185AA-C4F5-4BEA-8EBB-F338DEDC85B0}" name="Z5" dataDxfId="24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{58498FFD-56A3-4030-BAC5-A4DF84000E7B}" name="Padi" displayName="Padi" ref="A1:P35" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63" totalsRowBorderDxfId="62">
+  <autoFilter ref="A1:P35" xr:uid="{58498FFD-56A3-4030-BAC5-A4DF84000E7B}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{87E25319-6BDE-491C-89E1-CE64AE015B23}" name="Lokasi" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{349CDAE8-9921-48C4-AA06-D21865547968}" name="X1" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{D7C05B65-F695-4C86-AC9E-13482BB0F612}" name="X2" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{B187E94F-9C4E-409B-AAB6-0F90D6A7FF18}" name="X3" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{2553C06E-60E7-45C2-9455-E7ECFB718760}" name="X4" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{6C518F79-5FF8-4FD8-95C8-0AE4A27DBD16}" name="X5" dataDxfId="56"/>
+    <tableColumn id="7" xr3:uid="{B47D73B5-6CCB-492F-8314-4FCEC6C33B71}" name="X6" dataDxfId="55"/>
+    <tableColumn id="8" xr3:uid="{B21C0025-53AE-4E4A-AC76-1E89AC9DCE2B}" name="Y1" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{9A2F63FB-FF69-4621-85FE-9CD65FEF3139}" name="Y2" dataDxfId="53"/>
+    <tableColumn id="10" xr3:uid="{D3DC8997-DDE9-47C9-8353-D9F3FD5597BC}" name="Y3" dataDxfId="52"/>
+    <tableColumn id="11" xr3:uid="{F88D43E5-ED63-4927-85B4-EFEE690DABEB}" name="Y4" dataDxfId="51"/>
+    <tableColumn id="12" xr3:uid="{D2811859-E1D7-4873-B0BF-07272B4DD900}" name="Y5" dataDxfId="50"/>
+    <tableColumn id="13" xr3:uid="{D27BE502-1DF9-4D21-A61A-5D78E34633EE}" name="Y6" dataDxfId="49"/>
+    <tableColumn id="14" xr3:uid="{02F17D65-5730-4469-8C04-3F1FFEF4881B}" name="Z1" dataDxfId="48"/>
+    <tableColumn id="15" xr3:uid="{342F8DBF-8AA6-46E0-A6A9-E58E73449B9C}" name="Z2" dataDxfId="47"/>
+    <tableColumn id="16" xr3:uid="{BC250D39-FEA5-4117-A540-9FBE0F5EF57B}" name="Z3" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8755D056-C5B6-4AF2-A726-F6D5BE7B5ED7}" name="Kentang" displayName="Kentang" ref="A1:S30" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1C98EB0A-AE46-417F-A5A7-0A7AB0003563}" name="Tebu" displayName="Tebu" ref="A1:O13" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42" totalsRowBorderDxfId="41">
+  <autoFilter ref="A1:O13" xr:uid="{1C98EB0A-AE46-417F-A5A7-0A7AB0003563}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{3ED1B4F9-2E37-40D8-B4C3-B78352EA7692}" name="Lokasi" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{6740E590-6CA2-4676-8930-EF247218147E}" name="X1" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{54501320-494C-43DD-BACD-779274016EB6}" name="X2" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{00BF2278-34AE-4164-977D-06DBEE6F24A1}" name="X3" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{342B3436-7409-410E-A120-9C733B5E04A2}" name="X4" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{BE1147DC-44D3-4151-B283-D4C1BD7238C3}" name="X5" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{9CC6AE71-F42F-4201-9FFC-DAA02F7222F0}" name="Y1" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{F1012602-F5F5-45FD-8DE0-E5E2FFE2DFDD}" name="Y2" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{A80A15D6-DC71-4DCD-91E3-C62ECB5F46D6}" name="Y3" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{D968C074-0D4E-48C0-98DE-A0239AF383D1}" name="Y4" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{4DBEE1B9-4FCE-447C-86DA-3028A4DFC8BC}" name="Z1" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{AC9199FD-6356-42FD-AE09-5C4C9DE5FDD0}" name="Z2" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{55265D18-39CB-44A0-A477-50DCC847332C}" name="Z3" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{7A316879-D5DC-47D5-82A4-D4453A96FEA0}" name="Z4" dataDxfId="27"/>
+    <tableColumn id="15" xr3:uid="{A9B185AA-C4F5-4BEA-8EBB-F338DEDC85B0}" name="Z5" dataDxfId="26"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8755D056-C5B6-4AF2-A726-F6D5BE7B5ED7}" name="Kentang" displayName="Kentang" ref="A1:S30" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <autoFilter ref="A1:S30" xr:uid="{8755D056-C5B6-4AF2-A726-F6D5BE7B5ED7}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{FF1F767B-DAE3-44DD-8DEA-EE54D9EFE11E}" name="Lokasi" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{A0024DF2-59EC-4888-B4FA-548AA852301A}" name="X1" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{0BACFDD2-FF6E-4D27-B00D-8C8939CB97AE}" name="X2" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{91D67BE9-77B6-4068-BA8B-F5FAAF861757}" name="X3" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{E046846A-A7FE-4FAF-90DD-21F6801851F5}" name="X4" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{9DF35760-1589-4657-B037-35D041842961}" name="X5" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{A45A4013-C4E8-492A-9594-B84AE0049F4B}" name="X6" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{3D8F904F-E626-4D7A-9000-12E9FE9635AF}" name="Y1" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{1F02C762-9691-40E1-BED8-0FFB992DE7C0}" name="Y2" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{9FDE81A0-1B1B-4600-8AC4-76F5A6AFB47B}" name="Y3" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{F7B1B7DA-166B-4AFE-BA43-4104E601C76B}" name="Y4" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{3D06AF8C-2C6C-4151-8EEC-BE0292E72F2F}" name="Y5" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{49292A2C-8DDD-4A19-9704-84C971AC7B0F}" name="Y6" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{A822C08B-3685-4BE8-8A1A-7E9A35801A92}" name="Z1" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{FAF959D7-0F9F-4BCB-9581-40AD7CCC6F52}" name="Z2" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{173AB078-B2F7-4474-81CF-FB4795EE7894}" name="Z3" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{02694ECB-B6D7-4294-9237-EF0B72652ADA}" name="Z4" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{71158A6B-A969-420D-BB35-D82DEDB40E02}" name="Z5" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{65EB7C93-992E-49D5-98D4-CF5C1887BC23}" name="Z6" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{FF1F767B-DAE3-44DD-8DEA-EE54D9EFE11E}" name="Lokasi" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{A0024DF2-59EC-4888-B4FA-548AA852301A}" name="X1" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{0BACFDD2-FF6E-4D27-B00D-8C8939CB97AE}" name="X2" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{91D67BE9-77B6-4068-BA8B-F5FAAF861757}" name="X3" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{E046846A-A7FE-4FAF-90DD-21F6801851F5}" name="X4" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{9DF35760-1589-4657-B037-35D041842961}" name="X5" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{A45A4013-C4E8-492A-9594-B84AE0049F4B}" name="X6" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{3D8F904F-E626-4D7A-9000-12E9FE9635AF}" name="Y1" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{1F02C762-9691-40E1-BED8-0FFB992DE7C0}" name="Y2" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{9FDE81A0-1B1B-4600-8AC4-76F5A6AFB47B}" name="Y3" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{F7B1B7DA-166B-4AFE-BA43-4104E601C76B}" name="Y4" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{3D06AF8C-2C6C-4151-8EEC-BE0292E72F2F}" name="Y5" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{49292A2C-8DDD-4A19-9704-84C971AC7B0F}" name="Y6" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{A822C08B-3685-4BE8-8A1A-7E9A35801A92}" name="Z1" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{FAF959D7-0F9F-4BCB-9581-40AD7CCC6F52}" name="Z2" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{173AB078-B2F7-4474-81CF-FB4795EE7894}" name="Z3" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{02694ECB-B6D7-4294-9237-EF0B72652ADA}" name="Z4" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{71158A6B-A969-420D-BB35-D82DEDB40E02}" name="Z5" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{65EB7C93-992E-49D5-98D4-CF5C1887BC23}" name="Z6" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5565,7 +5630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S244"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -10368,10 +10433,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBC758B-58E4-4FB3-B375-F4E6000B7A09}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10380,81 +10445,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5">
-        <v>2015</v>
+      <c r="E1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="5">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="5">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
         <v>4</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E5" s="5">
         <v>2018</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2019</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
         <v>6</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <v>2020</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/DATA BIG_PROJECT.xlsx
+++ b/DATA BIG_PROJECT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BigProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F34550E-6722-4F6A-AD6A-AA2CBE2B35F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916A26E3-03AF-4455-8004-70D1841E5AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="61">
   <si>
     <t>Lokasi</t>
   </si>
@@ -207,12 +207,15 @@
   <si>
     <t>Tahun</t>
   </si>
+  <si>
+    <t>Provinsi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -237,6 +240,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -258,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -377,11 +386,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -421,11 +459,3862 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="130">
+  <dxfs count="136">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="8"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -476,3736 +4365,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top style="thin">
-          <color indexed="10"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="10"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="8"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -5170,162 +5329,172 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DE5A63-D3D6-4576-9732-8D2ADE51BE5C}" name="Bawang_Merah" displayName="Bawang_Merah" ref="A1:S35" totalsRowShown="0" headerRowDxfId="129" dataDxfId="127" headerRowBorderDxfId="128" tableBorderDxfId="126" totalsRowBorderDxfId="125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DE5A63-D3D6-4576-9732-8D2ADE51BE5C}" name="Bawang_Merah" displayName="Bawang_Merah" ref="A1:S35" totalsRowShown="0" headerRowDxfId="135" dataDxfId="133" headerRowBorderDxfId="134" tableBorderDxfId="132" totalsRowBorderDxfId="131">
   <autoFilter ref="A1:S35" xr:uid="{11DE5A63-D3D6-4576-9732-8D2ADE51BE5C}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{B3F24A32-5409-4E03-8D2E-D390AF590819}" name="Lokasi" dataDxfId="124"/>
-    <tableColumn id="2" xr3:uid="{74D28A38-3DF2-4600-BB3E-8B465D3F5326}" name="X1" dataDxfId="123"/>
-    <tableColumn id="3" xr3:uid="{DE17C9E8-599F-4E76-B86A-6D1BF119ED9B}" name="X2" dataDxfId="122"/>
-    <tableColumn id="4" xr3:uid="{5AF5340D-C1BA-49E5-8C8D-B431C152130D}" name="X3" dataDxfId="121"/>
-    <tableColumn id="5" xr3:uid="{D6DFCE98-AB22-43C2-B10D-FDC5EE66A38D}" name="X4" dataDxfId="120"/>
-    <tableColumn id="6" xr3:uid="{D0C673FC-7541-49B5-B7E3-DB86EFBFEBBD}" name="X5" dataDxfId="119"/>
-    <tableColumn id="7" xr3:uid="{CE886B5B-2440-4476-AE86-DBB8843CDC9D}" name="X6" dataDxfId="118"/>
-    <tableColumn id="8" xr3:uid="{06E6657E-E1C4-4CAB-9802-86478C7E9E8D}" name="Y1" dataDxfId="117"/>
-    <tableColumn id="9" xr3:uid="{C64FA1FB-A863-452B-B0C4-0C89C749CF88}" name="Y2" dataDxfId="116"/>
-    <tableColumn id="10" xr3:uid="{1337A59C-8703-4004-B6E2-0EBB667CD6FF}" name="Y3" dataDxfId="115"/>
-    <tableColumn id="11" xr3:uid="{86EC544A-9989-4F0F-AFA1-BAA9BB6D7545}" name="Y4" dataDxfId="114"/>
-    <tableColumn id="12" xr3:uid="{34519299-7A42-462D-AC78-7CD718EC61DC}" name="Y5" dataDxfId="113"/>
-    <tableColumn id="13" xr3:uid="{49EE9EE8-D62D-4490-82AE-E130D82C772E}" name="Y6" dataDxfId="112"/>
-    <tableColumn id="14" xr3:uid="{F7A14BAC-DE6C-40AF-9D84-375F2322DA4B}" name="Z1" dataDxfId="111"/>
-    <tableColumn id="15" xr3:uid="{583F20B4-4890-411F-BE0D-D5099E0828B5}" name="Z2" dataDxfId="110"/>
-    <tableColumn id="16" xr3:uid="{EB5032BD-6CE7-47A3-948B-9AA012F59790}" name="Z3" dataDxfId="109"/>
-    <tableColumn id="17" xr3:uid="{816500AA-4811-4143-B7B0-0C08C9D9A4E8}" name="Z4" dataDxfId="108"/>
-    <tableColumn id="18" xr3:uid="{49B95384-814C-45F5-99E1-6C7361FA06B1}" name="Z5" dataDxfId="107"/>
-    <tableColumn id="19" xr3:uid="{9D368DB6-63D8-4ADC-A245-964004F12C44}" name="Z6" dataDxfId="106"/>
+    <tableColumn id="1" xr3:uid="{B3F24A32-5409-4E03-8D2E-D390AF590819}" name="Lokasi" dataDxfId="130"/>
+    <tableColumn id="2" xr3:uid="{74D28A38-3DF2-4600-BB3E-8B465D3F5326}" name="X1" dataDxfId="129"/>
+    <tableColumn id="3" xr3:uid="{DE17C9E8-599F-4E76-B86A-6D1BF119ED9B}" name="X2" dataDxfId="128"/>
+    <tableColumn id="4" xr3:uid="{5AF5340D-C1BA-49E5-8C8D-B431C152130D}" name="X3" dataDxfId="127"/>
+    <tableColumn id="5" xr3:uid="{D6DFCE98-AB22-43C2-B10D-FDC5EE66A38D}" name="X4" dataDxfId="126"/>
+    <tableColumn id="6" xr3:uid="{D0C673FC-7541-49B5-B7E3-DB86EFBFEBBD}" name="X5" dataDxfId="125"/>
+    <tableColumn id="7" xr3:uid="{CE886B5B-2440-4476-AE86-DBB8843CDC9D}" name="X6" dataDxfId="124"/>
+    <tableColumn id="8" xr3:uid="{06E6657E-E1C4-4CAB-9802-86478C7E9E8D}" name="Y1" dataDxfId="123"/>
+    <tableColumn id="9" xr3:uid="{C64FA1FB-A863-452B-B0C4-0C89C749CF88}" name="Y2" dataDxfId="122"/>
+    <tableColumn id="10" xr3:uid="{1337A59C-8703-4004-B6E2-0EBB667CD6FF}" name="Y3" dataDxfId="121"/>
+    <tableColumn id="11" xr3:uid="{86EC544A-9989-4F0F-AFA1-BAA9BB6D7545}" name="Y4" dataDxfId="120"/>
+    <tableColumn id="12" xr3:uid="{34519299-7A42-462D-AC78-7CD718EC61DC}" name="Y5" dataDxfId="119"/>
+    <tableColumn id="13" xr3:uid="{49EE9EE8-D62D-4490-82AE-E130D82C772E}" name="Y6" dataDxfId="118"/>
+    <tableColumn id="14" xr3:uid="{F7A14BAC-DE6C-40AF-9D84-375F2322DA4B}" name="Z1" dataDxfId="117"/>
+    <tableColumn id="15" xr3:uid="{583F20B4-4890-411F-BE0D-D5099E0828B5}" name="Z2" dataDxfId="116"/>
+    <tableColumn id="16" xr3:uid="{EB5032BD-6CE7-47A3-948B-9AA012F59790}" name="Z3" dataDxfId="115"/>
+    <tableColumn id="17" xr3:uid="{816500AA-4811-4143-B7B0-0C08C9D9A4E8}" name="Z4" dataDxfId="114"/>
+    <tableColumn id="18" xr3:uid="{49B95384-814C-45F5-99E1-6C7361FA06B1}" name="Z5" dataDxfId="113"/>
+    <tableColumn id="19" xr3:uid="{9D368DB6-63D8-4ADC-A245-964004F12C44}" name="Z6" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E287B2D5-3EC7-449B-8187-41B3AFA26002}" name="Tahun" displayName="Tahun" ref="E1:E7" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E287B2D5-3EC7-449B-8187-41B3AFA26002}" name="Tahun" displayName="Tahun" ref="E1:E7" totalsRowShown="0" dataDxfId="111">
   <autoFilter ref="E1:E7" xr:uid="{E287B2D5-3EC7-449B-8187-41B3AFA26002}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{BB247F59-FC6F-4739-9A2D-D8BEA7E0F215}" name="Tahun" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{BB247F59-FC6F-4739-9A2D-D8BEA7E0F215}" name="Tahun" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{74A2164F-37E1-493A-B2CA-E6DDA60097D9}" name="Cabai" displayName="Cabai" ref="A1:S35" totalsRowShown="0" headerRowDxfId="105" dataDxfId="103" headerRowBorderDxfId="104" tableBorderDxfId="102" totalsRowBorderDxfId="101">
-  <autoFilter ref="A1:S35" xr:uid="{74A2164F-37E1-493A-B2CA-E6DDA60097D9}"/>
-  <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{610C856B-0195-4AFB-BB80-31478E4EA395}" name="Lokasi" dataDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{EE86A0E3-4F4C-4B5F-9F5E-750F18580C36}" name="X1" dataDxfId="99"/>
-    <tableColumn id="3" xr3:uid="{8DC1F2F0-83B8-4B69-B6C1-47B3B8B47860}" name="X2" dataDxfId="98"/>
-    <tableColumn id="4" xr3:uid="{A8F73E7E-B5C2-4E1D-95E2-8E0EE389457B}" name="X3" dataDxfId="97"/>
-    <tableColumn id="5" xr3:uid="{6B17F201-40FE-4624-95F6-2FD3F23F9C87}" name="X4" dataDxfId="96"/>
-    <tableColumn id="6" xr3:uid="{AF01D447-1D2C-4762-B716-16600B39387D}" name="X5" dataDxfId="95"/>
-    <tableColumn id="7" xr3:uid="{6E4D6376-E15C-4366-8043-1ED787A08643}" name="X6" dataDxfId="94"/>
-    <tableColumn id="8" xr3:uid="{927EA8C7-A0BC-4129-B44D-673EBC9212E3}" name="Y1" dataDxfId="93"/>
-    <tableColumn id="9" xr3:uid="{D99EBBA3-0790-4A98-9DE9-2E9FF350FB2F}" name="Y2" dataDxfId="92"/>
-    <tableColumn id="10" xr3:uid="{BB0C1B7E-FB53-4B00-884B-A45132AE9707}" name="Y3" dataDxfId="91"/>
-    <tableColumn id="11" xr3:uid="{FC4EFD7F-4612-4AEC-A04D-6DC5D8A88F60}" name="Y4" dataDxfId="90"/>
-    <tableColumn id="12" xr3:uid="{23584CBF-2A78-4D5C-9B4E-4CE21E71F167}" name="Y5" dataDxfId="89"/>
-    <tableColumn id="13" xr3:uid="{20F8A577-03C2-45AF-8047-CAAD7CF2994E}" name="Y6" dataDxfId="88"/>
-    <tableColumn id="14" xr3:uid="{B4B3B6EF-49A8-4B1E-AD87-D88722460643}" name="Z1" dataDxfId="87"/>
-    <tableColumn id="15" xr3:uid="{836E944A-AC33-4DBD-BCDB-376DF82EF17F}" name="Z2" dataDxfId="86"/>
-    <tableColumn id="16" xr3:uid="{CC4B8A49-5A8C-450E-BDDA-E3553EAEB791}" name="Z3" dataDxfId="85"/>
-    <tableColumn id="17" xr3:uid="{4DEA008A-DC23-4D57-9B4D-223BA4D0ABF9}" name="Z4" dataDxfId="84"/>
-    <tableColumn id="18" xr3:uid="{EAAB125F-0FD5-4C5F-A8FE-B3635563F061}" name="Z5" dataDxfId="83"/>
-    <tableColumn id="19" xr3:uid="{05DBFA1B-4E0D-4BDC-88A6-CE1D5F7A20C8}" name="Z6" dataDxfId="82"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{95538774-609E-4890-BFF7-3EBA7DB341A2}" name="Provinsi" displayName="Provinsi" ref="A10:A44" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="A10:A44" xr:uid="{95538774-609E-4890-BFF7-3EBA7DB341A2}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{1F22359A-D214-4AD5-98E2-778A2410952E}" name="Provinsi" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9EA2F684-4DEC-4463-9B2D-5F08CEB6746D}" name="Jagung" displayName="Jagung" ref="A1:J35" totalsRowShown="0" headerRowDxfId="81" dataDxfId="79" headerRowBorderDxfId="80" tableBorderDxfId="78" totalsRowBorderDxfId="77">
-  <autoFilter ref="A1:J35" xr:uid="{9EA2F684-4DEC-4463-9B2D-5F08CEB6746D}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{58E0F803-7FAA-4649-9BAB-3F7D6663ED01}" name="Lokasi" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{2C7AB47E-92D3-4FB5-B3FB-62EA92F58F19}" name="X1" dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{85728884-A0AF-42B9-9DC6-BAB4265411A4}" name="X2" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{493A37B5-0EB7-4D66-A217-8A1BBF240961}" name="X3" dataDxfId="73"/>
-    <tableColumn id="5" xr3:uid="{3D1B9885-623E-47D8-957B-ABBD27D14216}" name="Y1" dataDxfId="72"/>
-    <tableColumn id="6" xr3:uid="{47E946A6-667C-4181-9535-8AAEB9980CFE}" name="Y2" dataDxfId="71"/>
-    <tableColumn id="7" xr3:uid="{779535A8-03D1-4C0D-8C56-70BFC30EA670}" name="Y3" dataDxfId="70"/>
-    <tableColumn id="8" xr3:uid="{468BE7C3-18EF-4608-AFAD-AE76682DB972}" name="Z1" dataDxfId="69"/>
-    <tableColumn id="9" xr3:uid="{68EEC588-4FB7-4BC6-B464-7DAAA5B8BDC8}" name="Z2" dataDxfId="68"/>
-    <tableColumn id="10" xr3:uid="{AEB84123-C8ED-4A4F-851E-2906FBFA9289}" name="Z3" dataDxfId="67"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{74A2164F-37E1-493A-B2CA-E6DDA60097D9}" name="Cabai" displayName="Cabai" ref="A1:S35" totalsRowShown="0" headerRowDxfId="109" dataDxfId="107" headerRowBorderDxfId="108" tableBorderDxfId="106" totalsRowBorderDxfId="105">
+  <autoFilter ref="A1:S35" xr:uid="{74A2164F-37E1-493A-B2CA-E6DDA60097D9}"/>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{610C856B-0195-4AFB-BB80-31478E4EA395}" name="Lokasi" dataDxfId="104"/>
+    <tableColumn id="2" xr3:uid="{EE86A0E3-4F4C-4B5F-9F5E-750F18580C36}" name="X1" dataDxfId="103"/>
+    <tableColumn id="3" xr3:uid="{8DC1F2F0-83B8-4B69-B6C1-47B3B8B47860}" name="X2" dataDxfId="102"/>
+    <tableColumn id="4" xr3:uid="{A8F73E7E-B5C2-4E1D-95E2-8E0EE389457B}" name="X3" dataDxfId="101"/>
+    <tableColumn id="5" xr3:uid="{6B17F201-40FE-4624-95F6-2FD3F23F9C87}" name="X4" dataDxfId="100"/>
+    <tableColumn id="6" xr3:uid="{AF01D447-1D2C-4762-B716-16600B39387D}" name="X5" dataDxfId="99"/>
+    <tableColumn id="7" xr3:uid="{6E4D6376-E15C-4366-8043-1ED787A08643}" name="X6" dataDxfId="98"/>
+    <tableColumn id="8" xr3:uid="{927EA8C7-A0BC-4129-B44D-673EBC9212E3}" name="Y1" dataDxfId="97"/>
+    <tableColumn id="9" xr3:uid="{D99EBBA3-0790-4A98-9DE9-2E9FF350FB2F}" name="Y2" dataDxfId="96"/>
+    <tableColumn id="10" xr3:uid="{BB0C1B7E-FB53-4B00-884B-A45132AE9707}" name="Y3" dataDxfId="95"/>
+    <tableColumn id="11" xr3:uid="{FC4EFD7F-4612-4AEC-A04D-6DC5D8A88F60}" name="Y4" dataDxfId="94"/>
+    <tableColumn id="12" xr3:uid="{23584CBF-2A78-4D5C-9B4E-4CE21E71F167}" name="Y5" dataDxfId="93"/>
+    <tableColumn id="13" xr3:uid="{20F8A577-03C2-45AF-8047-CAAD7CF2994E}" name="Y6" dataDxfId="92"/>
+    <tableColumn id="14" xr3:uid="{B4B3B6EF-49A8-4B1E-AD87-D88722460643}" name="Z1" dataDxfId="91"/>
+    <tableColumn id="15" xr3:uid="{836E944A-AC33-4DBD-BCDB-376DF82EF17F}" name="Z2" dataDxfId="90"/>
+    <tableColumn id="16" xr3:uid="{CC4B8A49-5A8C-450E-BDDA-E3553EAEB791}" name="Z3" dataDxfId="89"/>
+    <tableColumn id="17" xr3:uid="{4DEA008A-DC23-4D57-9B4D-223BA4D0ABF9}" name="Z4" dataDxfId="88"/>
+    <tableColumn id="18" xr3:uid="{EAAB125F-0FD5-4C5F-A8FE-B3635563F061}" name="Z5" dataDxfId="87"/>
+    <tableColumn id="19" xr3:uid="{05DBFA1B-4E0D-4BDC-88A6-CE1D5F7A20C8}" name="Z6" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{58498FFD-56A3-4030-BAC5-A4DF84000E7B}" name="Padi" displayName="Padi" ref="A1:P35" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63" totalsRowBorderDxfId="62">
-  <autoFilter ref="A1:P35" xr:uid="{58498FFD-56A3-4030-BAC5-A4DF84000E7B}"/>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{87E25319-6BDE-491C-89E1-CE64AE015B23}" name="Lokasi" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{349CDAE8-9921-48C4-AA06-D21865547968}" name="X1" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{D7C05B65-F695-4C86-AC9E-13482BB0F612}" name="X2" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{B187E94F-9C4E-409B-AAB6-0F90D6A7FF18}" name="X3" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{2553C06E-60E7-45C2-9455-E7ECFB718760}" name="X4" dataDxfId="57"/>
-    <tableColumn id="6" xr3:uid="{6C518F79-5FF8-4FD8-95C8-0AE4A27DBD16}" name="X5" dataDxfId="56"/>
-    <tableColumn id="7" xr3:uid="{B47D73B5-6CCB-492F-8314-4FCEC6C33B71}" name="X6" dataDxfId="55"/>
-    <tableColumn id="8" xr3:uid="{B21C0025-53AE-4E4A-AC76-1E89AC9DCE2B}" name="Y1" dataDxfId="54"/>
-    <tableColumn id="9" xr3:uid="{9A2F63FB-FF69-4621-85FE-9CD65FEF3139}" name="Y2" dataDxfId="53"/>
-    <tableColumn id="10" xr3:uid="{D3DC8997-DDE9-47C9-8353-D9F3FD5597BC}" name="Y3" dataDxfId="52"/>
-    <tableColumn id="11" xr3:uid="{F88D43E5-ED63-4927-85B4-EFEE690DABEB}" name="Y4" dataDxfId="51"/>
-    <tableColumn id="12" xr3:uid="{D2811859-E1D7-4873-B0BF-07272B4DD900}" name="Y5" dataDxfId="50"/>
-    <tableColumn id="13" xr3:uid="{D27BE502-1DF9-4D21-A61A-5D78E34633EE}" name="Y6" dataDxfId="49"/>
-    <tableColumn id="14" xr3:uid="{02F17D65-5730-4469-8C04-3F1FFEF4881B}" name="Z1" dataDxfId="48"/>
-    <tableColumn id="15" xr3:uid="{342F8DBF-8AA6-46E0-A6A9-E58E73449B9C}" name="Z2" dataDxfId="47"/>
-    <tableColumn id="16" xr3:uid="{BC250D39-FEA5-4117-A540-9FBE0F5EF57B}" name="Z3" dataDxfId="46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9EA2F684-4DEC-4463-9B2D-5F08CEB6746D}" name="Jagung" displayName="Jagung" ref="A1:J35" totalsRowShown="0" headerRowDxfId="85" dataDxfId="83" headerRowBorderDxfId="84" tableBorderDxfId="82" totalsRowBorderDxfId="81">
+  <autoFilter ref="A1:J35" xr:uid="{9EA2F684-4DEC-4463-9B2D-5F08CEB6746D}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{58E0F803-7FAA-4649-9BAB-3F7D6663ED01}" name="Lokasi" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{2C7AB47E-92D3-4FB5-B3FB-62EA92F58F19}" name="X1" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{85728884-A0AF-42B9-9DC6-BAB4265411A4}" name="X2" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{493A37B5-0EB7-4D66-A217-8A1BBF240961}" name="X3" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{3D1B9885-623E-47D8-957B-ABBD27D14216}" name="Y1" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{47E946A6-667C-4181-9535-8AAEB9980CFE}" name="Y2" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{779535A8-03D1-4C0D-8C56-70BFC30EA670}" name="Y3" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{468BE7C3-18EF-4608-AFAD-AE76682DB972}" name="Z1" dataDxfId="73"/>
+    <tableColumn id="9" xr3:uid="{68EEC588-4FB7-4BC6-B464-7DAAA5B8BDC8}" name="Z2" dataDxfId="72"/>
+    <tableColumn id="10" xr3:uid="{AEB84123-C8ED-4A4F-851E-2906FBFA9289}" name="Z3" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1C98EB0A-AE46-417F-A5A7-0A7AB0003563}" name="Tebu" displayName="Tebu" ref="A1:O13" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42" totalsRowBorderDxfId="41">
-  <autoFilter ref="A1:O13" xr:uid="{1C98EB0A-AE46-417F-A5A7-0A7AB0003563}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{3ED1B4F9-2E37-40D8-B4C3-B78352EA7692}" name="Lokasi" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{6740E590-6CA2-4676-8930-EF247218147E}" name="X1" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{54501320-494C-43DD-BACD-779274016EB6}" name="X2" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{00BF2278-34AE-4164-977D-06DBEE6F24A1}" name="X3" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{342B3436-7409-410E-A120-9C733B5E04A2}" name="X4" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{BE1147DC-44D3-4151-B283-D4C1BD7238C3}" name="X5" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{9CC6AE71-F42F-4201-9FFC-DAA02F7222F0}" name="Y1" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{F1012602-F5F5-45FD-8DE0-E5E2FFE2DFDD}" name="Y2" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{A80A15D6-DC71-4DCD-91E3-C62ECB5F46D6}" name="Y3" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{D968C074-0D4E-48C0-98DE-A0239AF383D1}" name="Y4" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{4DBEE1B9-4FCE-447C-86DA-3028A4DFC8BC}" name="Z1" dataDxfId="30"/>
-    <tableColumn id="12" xr3:uid="{AC9199FD-6356-42FD-AE09-5C4C9DE5FDD0}" name="Z2" dataDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{55265D18-39CB-44A0-A477-50DCC847332C}" name="Z3" dataDxfId="28"/>
-    <tableColumn id="14" xr3:uid="{7A316879-D5DC-47D5-82A4-D4453A96FEA0}" name="Z4" dataDxfId="27"/>
-    <tableColumn id="15" xr3:uid="{A9B185AA-C4F5-4BEA-8EBB-F338DEDC85B0}" name="Z5" dataDxfId="26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{58498FFD-56A3-4030-BAC5-A4DF84000E7B}" name="Padi" displayName="Padi" ref="A1:P35" totalsRowShown="0" headerRowDxfId="70" dataDxfId="68" headerRowBorderDxfId="69" tableBorderDxfId="67" totalsRowBorderDxfId="66">
+  <autoFilter ref="A1:P35" xr:uid="{58498FFD-56A3-4030-BAC5-A4DF84000E7B}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{87E25319-6BDE-491C-89E1-CE64AE015B23}" name="Lokasi" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{349CDAE8-9921-48C4-AA06-D21865547968}" name="X1" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{D7C05B65-F695-4C86-AC9E-13482BB0F612}" name="X2" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{B187E94F-9C4E-409B-AAB6-0F90D6A7FF18}" name="X3" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{2553C06E-60E7-45C2-9455-E7ECFB718760}" name="X4" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{6C518F79-5FF8-4FD8-95C8-0AE4A27DBD16}" name="X5" dataDxfId="60"/>
+    <tableColumn id="7" xr3:uid="{B47D73B5-6CCB-492F-8314-4FCEC6C33B71}" name="X6" dataDxfId="59"/>
+    <tableColumn id="8" xr3:uid="{B21C0025-53AE-4E4A-AC76-1E89AC9DCE2B}" name="Y1" dataDxfId="58"/>
+    <tableColumn id="9" xr3:uid="{9A2F63FB-FF69-4621-85FE-9CD65FEF3139}" name="Y2" dataDxfId="57"/>
+    <tableColumn id="10" xr3:uid="{D3DC8997-DDE9-47C9-8353-D9F3FD5597BC}" name="Y3" dataDxfId="56"/>
+    <tableColumn id="11" xr3:uid="{F88D43E5-ED63-4927-85B4-EFEE690DABEB}" name="Y4" dataDxfId="55"/>
+    <tableColumn id="12" xr3:uid="{D2811859-E1D7-4873-B0BF-07272B4DD900}" name="Y5" dataDxfId="54"/>
+    <tableColumn id="13" xr3:uid="{D27BE502-1DF9-4D21-A61A-5D78E34633EE}" name="Y6" dataDxfId="53"/>
+    <tableColumn id="14" xr3:uid="{02F17D65-5730-4469-8C04-3F1FFEF4881B}" name="Z1" dataDxfId="52"/>
+    <tableColumn id="15" xr3:uid="{342F8DBF-8AA6-46E0-A6A9-E58E73449B9C}" name="Z2" dataDxfId="51"/>
+    <tableColumn id="16" xr3:uid="{BC250D39-FEA5-4117-A540-9FBE0F5EF57B}" name="Z3" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8755D056-C5B6-4AF2-A726-F6D5BE7B5ED7}" name="Kentang" displayName="Kentang" ref="A1:S30" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1C98EB0A-AE46-417F-A5A7-0A7AB0003563}" name="Tebu" displayName="Tebu" ref="A1:O13" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
+  <autoFilter ref="A1:O13" xr:uid="{1C98EB0A-AE46-417F-A5A7-0A7AB0003563}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{3ED1B4F9-2E37-40D8-B4C3-B78352EA7692}" name="Lokasi" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{6740E590-6CA2-4676-8930-EF247218147E}" name="X1" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{54501320-494C-43DD-BACD-779274016EB6}" name="X2" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{00BF2278-34AE-4164-977D-06DBEE6F24A1}" name="X3" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{342B3436-7409-410E-A120-9C733B5E04A2}" name="X4" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{BE1147DC-44D3-4151-B283-D4C1BD7238C3}" name="X5" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{9CC6AE71-F42F-4201-9FFC-DAA02F7222F0}" name="Y1" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{F1012602-F5F5-45FD-8DE0-E5E2FFE2DFDD}" name="Y2" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{A80A15D6-DC71-4DCD-91E3-C62ECB5F46D6}" name="Y3" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{D968C074-0D4E-48C0-98DE-A0239AF383D1}" name="Y4" dataDxfId="35"/>
+    <tableColumn id="11" xr3:uid="{4DBEE1B9-4FCE-447C-86DA-3028A4DFC8BC}" name="Z1" dataDxfId="34"/>
+    <tableColumn id="12" xr3:uid="{AC9199FD-6356-42FD-AE09-5C4C9DE5FDD0}" name="Z2" dataDxfId="33"/>
+    <tableColumn id="13" xr3:uid="{55265D18-39CB-44A0-A477-50DCC847332C}" name="Z3" dataDxfId="32"/>
+    <tableColumn id="14" xr3:uid="{7A316879-D5DC-47D5-82A4-D4453A96FEA0}" name="Z4" dataDxfId="31"/>
+    <tableColumn id="15" xr3:uid="{A9B185AA-C4F5-4BEA-8EBB-F338DEDC85B0}" name="Z5" dataDxfId="30"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8755D056-C5B6-4AF2-A726-F6D5BE7B5ED7}" name="Kentang" displayName="Kentang" ref="A1:S30" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <autoFilter ref="A1:S30" xr:uid="{8755D056-C5B6-4AF2-A726-F6D5BE7B5ED7}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{FF1F767B-DAE3-44DD-8DEA-EE54D9EFE11E}" name="Lokasi" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{A0024DF2-59EC-4888-B4FA-548AA852301A}" name="X1" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{0BACFDD2-FF6E-4D27-B00D-8C8939CB97AE}" name="X2" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{91D67BE9-77B6-4068-BA8B-F5FAAF861757}" name="X3" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{E046846A-A7FE-4FAF-90DD-21F6801851F5}" name="X4" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{9DF35760-1589-4657-B037-35D041842961}" name="X5" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{A45A4013-C4E8-492A-9594-B84AE0049F4B}" name="X6" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{3D8F904F-E626-4D7A-9000-12E9FE9635AF}" name="Y1" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{1F02C762-9691-40E1-BED8-0FFB992DE7C0}" name="Y2" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{9FDE81A0-1B1B-4600-8AC4-76F5A6AFB47B}" name="Y3" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{F7B1B7DA-166B-4AFE-BA43-4104E601C76B}" name="Y4" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{3D06AF8C-2C6C-4151-8EEC-BE0292E72F2F}" name="Y5" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{49292A2C-8DDD-4A19-9704-84C971AC7B0F}" name="Y6" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{A822C08B-3685-4BE8-8A1A-7E9A35801A92}" name="Z1" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{FAF959D7-0F9F-4BCB-9581-40AD7CCC6F52}" name="Z2" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{173AB078-B2F7-4474-81CF-FB4795EE7894}" name="Z3" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{02694ECB-B6D7-4294-9237-EF0B72652ADA}" name="Z4" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{71158A6B-A969-420D-BB35-D82DEDB40E02}" name="Z5" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{65EB7C93-992E-49D5-98D4-CF5C1887BC23}" name="Z6" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{FF1F767B-DAE3-44DD-8DEA-EE54D9EFE11E}" name="Lokasi" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{A0024DF2-59EC-4888-B4FA-548AA852301A}" name="X1" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{0BACFDD2-FF6E-4D27-B00D-8C8939CB97AE}" name="X2" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{91D67BE9-77B6-4068-BA8B-F5FAAF861757}" name="X3" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{E046846A-A7FE-4FAF-90DD-21F6801851F5}" name="X4" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{9DF35760-1589-4657-B037-35D041842961}" name="X5" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{A45A4013-C4E8-492A-9594-B84AE0049F4B}" name="X6" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{3D8F904F-E626-4D7A-9000-12E9FE9635AF}" name="Y1" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{1F02C762-9691-40E1-BED8-0FFB992DE7C0}" name="Y2" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{9FDE81A0-1B1B-4600-8AC4-76F5A6AFB47B}" name="Y3" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{F7B1B7DA-166B-4AFE-BA43-4104E601C76B}" name="Y4" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{3D06AF8C-2C6C-4151-8EEC-BE0292E72F2F}" name="Y5" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{49292A2C-8DDD-4A19-9704-84C971AC7B0F}" name="Y6" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{A822C08B-3685-4BE8-8A1A-7E9A35801A92}" name="Z1" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{FAF959D7-0F9F-4BCB-9581-40AD7CCC6F52}" name="Z2" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{173AB078-B2F7-4474-81CF-FB4795EE7894}" name="Z3" dataDxfId="9"/>
+    <tableColumn id="17" xr3:uid="{02694ECB-B6D7-4294-9237-EF0B72652ADA}" name="Z4" dataDxfId="8"/>
+    <tableColumn id="18" xr3:uid="{71158A6B-A969-420D-BB35-D82DEDB40E02}" name="Z5" dataDxfId="7"/>
+    <tableColumn id="19" xr3:uid="{65EB7C93-992E-49D5-98D4-CF5C1887BC23}" name="Z6" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5630,8 +5799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S244"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showRuler="0" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10433,15 +10602,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBC758B-58E4-4FB3-B375-F4E6000B7A09}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -10523,10 +10692,187 @@
         <v>2020</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
